--- a/Lab4/TestCase_Bai1.xlsx
+++ b/Lab4/TestCase_Bai1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ki2Nam4\Testing\Testing_Lab\Lab4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1C62D3-06E2-43DF-86B8-F552CC7EE7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA3C66E-DB8D-4542-8665-F074E73D53D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>TC_ID</t>
   </si>
@@ -42,12 +42,6 @@
     <t>Expected_Result</t>
   </si>
   <si>
-    <t>Automated</t>
-  </si>
-  <si>
-    <t>UnitTest_Reference</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -66,12 +60,6 @@
     <t>Hàm trả về 1.0 trong mọi trường hợp (sai số cho phép EPS = 1e-10).</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>PowerTests.KiemTra_NBang0_TraVe1</t>
-  </si>
-  <si>
     <t>Bao phủ yêu cầu RQ_01 (case n = 0). Nhiều phân vùng x: dương, âm, 0, 1, -1.</t>
   </si>
   <si>
@@ -90,9 +78,6 @@
     <t>Kết quả lần lượt: 2, 4, 8 (sai số EPS).</t>
   </si>
   <si>
-    <t>PowerTests.KiemTra_NDuong_XDuong</t>
-  </si>
-  <si>
     <t>Phân vùng: x&gt;0, n&gt;0. Bao gồm biên n=1 và n nhỏ quanh 0.</t>
   </si>
   <si>
@@ -111,9 +96,6 @@
     <t>Kết quả lần lượt: -2, -8, 4, 16 (sai số EPS).</t>
   </si>
   <si>
-    <t>PowerTests.KiemTra_NDuong_XAm</t>
-  </si>
-  <si>
     <t>Phân vùng: x&lt;0, n&gt;0; kiểm tra chẵn/lẻ → ảnh hưởng dấu.</t>
   </si>
   <si>
@@ -132,9 +114,6 @@
     <t>Kết quả: 0.5, 0.25, 0.125 (sai số EPS).</t>
   </si>
   <si>
-    <t>PowerTests.KiemTra_NAm_XDuong</t>
-  </si>
-  <si>
     <t>Phân vùng: x&gt;0, n&lt;0, độ lớn nhỏ (</t>
   </si>
   <si>
@@ -153,9 +132,6 @@
     <t>Kết quả: -0.5, 0.25 (sai số EPS).</t>
   </si>
   <si>
-    <t>PowerTests.KiemTra_NAm_XAm</t>
-  </si>
-  <si>
     <t>Phân vùng: x&lt;0, n&lt;0; chẵn/lẻ để kiểm dấu.</t>
   </si>
   <si>
@@ -174,9 +150,6 @@
     <t>Kết quả luôn là 1.0 (sai số EPS).</t>
   </si>
   <si>
-    <t>PowerTests.KiemTra_XBang1</t>
-  </si>
-  <si>
     <t>Phân vùng đặc biệt: base = 1.</t>
   </si>
   <si>
@@ -195,9 +168,6 @@
     <t>Kết quả: -1 (n lẻ), 1 (n chẵn) (sai số EPS).</t>
   </si>
   <si>
-    <t>PowerTests.KiemTra_XBangTru1</t>
-  </si>
-  <si>
     <t>Phân vùng đặc biệt: base = -1, kiểm chẵn/lẻ, n dương/âm.</t>
   </si>
   <si>
@@ -214,9 +184,6 @@
   </si>
   <si>
     <t>Kết quả = 0.0 (sai số EPS).</t>
-  </si>
-  <si>
-    <t>PowerTests.KiemTra_XBang0_NDuong</t>
   </si>
   <si>
     <t>Phân vùng đặc biệt: base = 0, exponent dương.</t>
@@ -275,9 +242,6 @@
     <t>Kết quả = 8, không phải 12; nếu nhân nhầm với n thì fail.</t>
   </si>
   <si>
-    <t>PowerTests.KiemTra_TinhDungTheoDinhNghia_KhongNhanN</t>
-  </si>
-  <si>
     <t>Test “regression” cho lỗi đã biết, mapping trực tiếp tới logic định nghĩa.</t>
   </si>
   <si>
@@ -342,12 +306,6 @@
       </rPr>
       <t>. Hiện tại code sẽ chia 0 → Infinity/NaN.</t>
     </r>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>(chưa có)</t>
   </si>
   <si>
     <t>Thiếu negative test cho domain không hợp lệ; case biên quan trọng.</t>
@@ -456,15 +414,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -750,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -763,11 +718,10 @@
     <col min="3" max="3" width="107.77734375" customWidth="1"/>
     <col min="4" max="4" width="34.33203125" customWidth="1"/>
     <col min="5" max="5" width="80.21875" customWidth="1"/>
-    <col min="6" max="6" width="16.21875" customWidth="1"/>
-    <col min="8" max="8" width="72.21875" customWidth="1"/>
+    <col min="6" max="6" width="72.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -786,323 +740,245 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="2" t="s">
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="3" t="s">
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="2" t="s">
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="2" t="s">
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="2" t="s">
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="2" t="s">
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="2" t="s">
+    <row r="13" spans="1:6">
+      <c r="A13" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E13" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
